--- a/문서/제작 현황 - 매일 2시간씩 할것.xlsx
+++ b/문서/제작 현황 - 매일 2시간씩 할것.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rabit\OneDrive\바탕 화면\defenceseoul\Defence_Seoul_2DGP\문서\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{389BC829-106A-444B-8F37-2DB69E173E7D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90FB751D-1FB4-470E-AAAF-E415F2602020}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{A6BCE028-1846-46D6-86BC-7F4B78ED7C7A}"/>
   </bookViews>
@@ -31,9 +31,25 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>마우스 따라오는 사각형 , 포탑 회전 구현</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>포탑 설치 , 포탑과 배 데미지 체크 , 포탑사거리 구현 , 포탑설치구역 예외처리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시간</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>내용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>날짜</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -401,7 +417,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A1A2A93-E1CA-4706-8701-ADC2B2840536}">
-  <dimension ref="B3:C3"/>
+  <dimension ref="B2:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
@@ -410,18 +426,50 @@
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="2" max="2" width="14.69921875" customWidth="1"/>
+    <col min="3" max="3" width="74.8984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B3" s="1">
         <v>43768</v>
       </c>
       <c r="C3" t="s">
         <v>0</v>
+      </c>
+      <c r="D3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B4" s="1">
+        <v>43769</v>
+      </c>
+      <c r="C4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B5" s="1">
+        <v>43770</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/문서/제작 현황 - 매일 2시간씩 할것.xlsx
+++ b/문서/제작 현황 - 매일 2시간씩 할것.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rabit\OneDrive\바탕 화면\defenceseoul\Defence_Seoul_2DGP\문서\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90FB751D-1FB4-470E-AAAF-E415F2602020}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0A13AD0-F7BE-41E7-94CB-14052E2D073D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{A6BCE028-1846-46D6-86BC-7F4B78ED7C7A}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>마우스 따라오는 사각형 , 포탑 회전 구현</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -50,6 +50,46 @@
   </si>
   <si>
     <t>날짜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>포탑 중복설치 방지, 스테이지와 골드 출력 , 배여러대 만들기 , 충돌체크 , 포탄 스프라이트 이미지 추가 , 포트 이미지 수정 , 오류방지를 위한 이름 수정 , 정리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">보트이미지 twjdgn 추가 , 배사이즈 수정 , bgm 수집 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">메인스테이지 브금삽입 , 시작스테이지 , 대기스테이지 브금삽입 , 포탄class </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5주차</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>타워 설치 및 드로우 구현</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>목표</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>달성률</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주차</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>탄막발사 및 충돌시스템구현 충돌 사운드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6주차</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -96,12 +136,21 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -417,57 +466,169 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A1A2A93-E1CA-4706-8701-ADC2B2840536}">
-  <dimension ref="B2:D5"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="14.69921875" customWidth="1"/>
-    <col min="3" max="3" width="74.8984375" customWidth="1"/>
+    <col min="3" max="3" width="22.5" customWidth="1"/>
+    <col min="4" max="4" width="14.69921875" customWidth="1"/>
+    <col min="5" max="5" width="74.8984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="C1" s="2"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A2" t="s">
+        <v>12</v>
+      </c>
       <c r="B2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" t="s">
+      <c r="E2" t="s">
         <v>3</v>
       </c>
-      <c r="D2" t="s">
+      <c r="F2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B3" s="1">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="4">
+        <v>1</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="1">
         <v>43768</v>
       </c>
-      <c r="C3" t="s">
+      <c r="E3" t="s">
         <v>0</v>
       </c>
-      <c r="D3">
+      <c r="F3">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B4" s="1">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A4" s="3"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="1">
         <v>43769</v>
       </c>
-      <c r="C4" t="s">
+      <c r="E4" t="s">
         <v>1</v>
       </c>
-      <c r="D4">
+      <c r="F4">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B5" s="1">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A5" s="3"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="1">
         <v>43770</v>
       </c>
+      <c r="E5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A6" s="3"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="1">
+        <v>43771</v>
+      </c>
+      <c r="E6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A7" s="3"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="1">
+        <v>43772</v>
+      </c>
+      <c r="E7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A8" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="1">
+        <v>43773</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
     </row>
   </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A3:A7"/>
+    <mergeCell ref="C3:C7"/>
+    <mergeCell ref="B3:B7"/>
+    <mergeCell ref="C8:C14"/>
+    <mergeCell ref="A8:A14"/>
+    <mergeCell ref="B8:B14"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/문서/제작 현황 - 매일 2시간씩 할것.xlsx
+++ b/문서/제작 현황 - 매일 2시간씩 할것.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rabit\OneDrive\바탕 화면\defenceseoul\Defence_Seoul_2DGP\문서\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0A13AD0-F7BE-41E7-94CB-14052E2D073D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7D2E252-B360-4DDB-BCE2-EB1F09485840}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{A6BCE028-1846-46D6-86BC-7F4B78ED7C7A}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>마우스 따라오는 사각형 , 포탑 회전 구현</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -61,14 +61,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">메인스테이지 브금삽입 , 시작스테이지 , 대기스테이지 브금삽입 , 포탄class </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5주차</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>타워 설치 및 드로우 구현</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -89,7 +81,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>6주차</t>
+    <t>메인스테이지 브금삽입 , 시작스테이지 , 대기스테이지 브금삽입 , 포탄class created</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -97,7 +89,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="2">
+    <numFmt numFmtId="177" formatCode="00\ &quot;주차&quot;"/>
+    <numFmt numFmtId="178" formatCode="00&quot;시간&quot;"/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -108,6 +104,14 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="129"/>
@@ -131,12 +135,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -149,11 +156,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="백분율" xfId="1" builtinId="5"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -466,31 +486,33 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A1A2A93-E1CA-4706-8701-ADC2B2840536}">
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
+    <col min="1" max="1" width="12.5" style="6" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="22.5" customWidth="1"/>
     <col min="4" max="4" width="14.69921875" customWidth="1"/>
     <col min="5" max="5" width="74.8984375" customWidth="1"/>
+    <col min="6" max="6" width="8.796875" style="8"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.4">
       <c r="C1" s="2"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A2" t="s">
-        <v>12</v>
+      <c r="A2" s="6" t="s">
+        <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D2" t="s">
         <v>4</v>
@@ -498,19 +520,19 @@
       <c r="E2" t="s">
         <v>3</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="8" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A3" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="4">
+      <c r="A3" s="7">
+        <v>5</v>
+      </c>
+      <c r="B3" s="5">
         <v>1</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D3" s="1">
         <v>43768</v>
@@ -518,13 +540,13 @@
       <c r="E3" t="s">
         <v>0</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="8">
         <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A4" s="3"/>
-      <c r="B4" s="4"/>
+      <c r="A4" s="7"/>
+      <c r="B4" s="5"/>
       <c r="C4" s="3"/>
       <c r="D4" s="1">
         <v>43769</v>
@@ -532,13 +554,13 @@
       <c r="E4" t="s">
         <v>1</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="8">
         <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A5" s="3"/>
-      <c r="B5" s="4"/>
+      <c r="A5" s="7"/>
+      <c r="B5" s="5"/>
       <c r="C5" s="3"/>
       <c r="D5" s="1">
         <v>43770</v>
@@ -546,13 +568,13 @@
       <c r="E5" t="s">
         <v>5</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="8">
         <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A6" s="3"/>
-      <c r="B6" s="4"/>
+      <c r="A6" s="7"/>
+      <c r="B6" s="5"/>
       <c r="C6" s="3"/>
       <c r="D6" s="1">
         <v>43771</v>
@@ -560,65 +582,70 @@
       <c r="E6" t="s">
         <v>6</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A7" s="3"/>
-      <c r="B7" s="4"/>
+      <c r="A7" s="7"/>
+      <c r="B7" s="5"/>
       <c r="C7" s="3"/>
       <c r="D7" s="1">
         <v>43772</v>
       </c>
       <c r="E7" t="s">
-        <v>7</v>
-      </c>
-      <c r="F7">
+        <v>12</v>
+      </c>
+      <c r="F7" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A8" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3" t="s">
-        <v>13</v>
+      <c r="A8" s="7">
+        <v>6</v>
+      </c>
+      <c r="B8" s="5"/>
+      <c r="C8" s="4" t="s">
+        <v>11</v>
       </c>
       <c r="D8" s="1">
         <v>43773</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
+      <c r="A9" s="7"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="4"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A10" s="3"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
+      <c r="A10" s="7"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="4"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A11" s="3"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
+      <c r="A11" s="7"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="4"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A12" s="3"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
+      <c r="A12" s="7"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="4"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A13" s="3"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
+      <c r="A13" s="7"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="4"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A14" s="3"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
+      <c r="A14" s="7"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="4"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A15" s="6">
+        <v>7</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="6">

--- a/문서/제작 현황 - 매일 2시간씩 할것.xlsx
+++ b/문서/제작 현황 - 매일 2시간씩 할것.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rabit\OneDrive\바탕 화면\defenceseoul\Defence_Seoul_2DGP\문서\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7D2E252-B360-4DDB-BCE2-EB1F09485840}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC9E5060-7654-4DC3-831D-54923E32AB43}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{A6BCE028-1846-46D6-86BC-7F4B78ED7C7A}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>마우스 따라오는 사각형 , 포탑 회전 구현</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -57,10 +57,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">보트이미지 twjdgn 추가 , 배사이즈 수정 , bgm 수집 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>타워 설치 및 드로우 구현</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -77,11 +73,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>탄막발사 및 충돌시스템구현 충돌 사운드</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>메인스테이지 브금삽입 , 시작스테이지 , 대기스테이지 브금삽입 , 포탄class created</t>
+    <t xml:space="preserve">보트이미지 수정 추가 , 배사이즈 수정 , bgm 수집 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>메인스테이지 브금삽입 , 시작스테이지 , 대기스테이지 브금삽입 , 탄막 class created</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>탄막발사 , 속도 조절 , 탄막 생성 , 탄막 클래스 함수와 변수 만듬 , 탄막 이미지 만듬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>탄막발사 충돌시스템구현 충돌 사운드</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -90,8 +94,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="177" formatCode="00\ &quot;주차&quot;"/>
-    <numFmt numFmtId="178" formatCode="00&quot;시간&quot;"/>
+    <numFmt numFmtId="176" formatCode="00\ &quot;주차&quot;"/>
+    <numFmt numFmtId="177" formatCode="00&quot;시간&quot;"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -153,23 +157,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -489,30 +493,30 @@
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="B8" sqref="B8:B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="12.5" style="6" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.5" style="3" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="22.5" customWidth="1"/>
     <col min="4" max="4" width="14.69921875" customWidth="1"/>
     <col min="5" max="5" width="74.8984375" customWidth="1"/>
-    <col min="6" max="6" width="8.796875" style="8"/>
+    <col min="6" max="6" width="8.796875" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.4">
       <c r="C1" s="2"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A2" s="6" t="s">
-        <v>10</v>
+      <c r="A2" s="3" t="s">
+        <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D2" t="s">
         <v>4</v>
@@ -520,19 +524,19 @@
       <c r="E2" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="F2" s="4" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A3" s="7">
+      <c r="A3" s="5">
         <v>5</v>
       </c>
-      <c r="B3" s="5">
+      <c r="B3" s="7">
         <v>1</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>7</v>
+      <c r="C3" s="6" t="s">
+        <v>6</v>
       </c>
       <c r="D3" s="1">
         <v>43768</v>
@@ -540,110 +544,116 @@
       <c r="E3" t="s">
         <v>0</v>
       </c>
-      <c r="F3" s="8">
+      <c r="F3" s="4">
         <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A4" s="7"/>
-      <c r="B4" s="5"/>
-      <c r="C4" s="3"/>
+      <c r="A4" s="5"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="6"/>
       <c r="D4" s="1">
         <v>43769</v>
       </c>
       <c r="E4" t="s">
         <v>1</v>
       </c>
-      <c r="F4" s="8">
+      <c r="F4" s="4">
         <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A5" s="7"/>
-      <c r="B5" s="5"/>
-      <c r="C5" s="3"/>
+      <c r="A5" s="5"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="6"/>
       <c r="D5" s="1">
         <v>43770</v>
       </c>
       <c r="E5" t="s">
         <v>5</v>
       </c>
-      <c r="F5" s="8">
+      <c r="F5" s="4">
         <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A6" s="7"/>
-      <c r="B6" s="5"/>
-      <c r="C6" s="3"/>
+      <c r="A6" s="5"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="6"/>
       <c r="D6" s="1">
         <v>43771</v>
       </c>
       <c r="E6" t="s">
-        <v>6</v>
-      </c>
-      <c r="F6" s="8">
+        <v>10</v>
+      </c>
+      <c r="F6" s="4">
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A7" s="7"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="3"/>
+      <c r="A7" s="5"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="6"/>
       <c r="D7" s="1">
         <v>43772</v>
       </c>
       <c r="E7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F7" s="8">
+        <v>11</v>
+      </c>
+      <c r="F7" s="4">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A8" s="7">
+      <c r="A8" s="5">
         <v>6</v>
       </c>
-      <c r="B8" s="5"/>
-      <c r="C8" s="4" t="s">
-        <v>11</v>
+      <c r="B8" s="7"/>
+      <c r="C8" s="8" t="s">
+        <v>13</v>
       </c>
       <c r="D8" s="1">
         <v>43773</v>
       </c>
+      <c r="E8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" s="4">
+        <v>2</v>
+      </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A9" s="7"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="4"/>
+      <c r="A9" s="5"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="8"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A10" s="7"/>
-      <c r="B10" s="5"/>
-      <c r="C10" s="4"/>
+      <c r="A10" s="5"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="8"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A11" s="7"/>
-      <c r="B11" s="5"/>
-      <c r="C11" s="4"/>
+      <c r="A11" s="5"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="8"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A12" s="7"/>
-      <c r="B12" s="5"/>
-      <c r="C12" s="4"/>
+      <c r="A12" s="5"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="8"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A13" s="7"/>
-      <c r="B13" s="5"/>
-      <c r="C13" s="4"/>
+      <c r="A13" s="5"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="8"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A14" s="7"/>
-      <c r="B14" s="5"/>
-      <c r="C14" s="4"/>
+      <c r="A14" s="5"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="8"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A15" s="6">
+      <c r="A15" s="3">
         <v>7</v>
       </c>
     </row>

--- a/문서/제작 현황 - 매일 2시간씩 할것.xlsx
+++ b/문서/제작 현황 - 매일 2시간씩 할것.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rabit\OneDrive\바탕 화면\defenceseoul\Defence_Seoul_2DGP\문서\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC9E5060-7654-4DC3-831D-54923E32AB43}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0F03E3E-1D46-44E9-A968-04E66BF6D911}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{A6BCE028-1846-46D6-86BC-7F4B78ED7C7A}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>마우스 따라오는 사각형 , 포탑 회전 구현</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -86,6 +86,14 @@
   </si>
   <si>
     <t>탄막발사 충돌시스템구현 충돌 사운드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>탄막발사 , 충돌구현 , 충돌시 데미지 구현  , 버그 픽스 , 포탄 목표고정 , 속도 조절</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4시간</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -493,7 +501,7 @@
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8:B14"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -626,6 +634,15 @@
       <c r="A9" s="5"/>
       <c r="B9" s="7"/>
       <c r="C9" s="8"/>
+      <c r="D9" s="1">
+        <v>43774</v>
+      </c>
+      <c r="E9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A10" s="5"/>

--- a/문서/제작 현황 - 매일 2시간씩 할것.xlsx
+++ b/문서/제작 현황 - 매일 2시간씩 할것.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rabit\OneDrive\바탕 화면\defenceseoul\Defence_Seoul_2DGP\문서\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0F03E3E-1D46-44E9-A968-04E66BF6D911}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BB9DD47-D85C-4AF5-8C32-E1F72977AC4E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{A6BCE028-1846-46D6-86BC-7F4B78ED7C7A}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>마우스 따라오는 사각형 , 포탑 회전 구현</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -94,6 +94,26 @@
   </si>
   <si>
     <t>4시간</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>패시브 py 파일 creat , 코드정리 , 탄막 충돌 버그픽스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>속성 업그레이드 시스템 , 속성 레벨 출력 , 속성 부여 및 작동 확인 , 밸런스 조절</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1시간</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3시간</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오류나서 삽질많이함</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -498,10 +518,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A1A2A93-E1CA-4706-8701-ADC2B2840536}">
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -513,10 +533,10 @@
     <col min="6" max="6" width="8.796875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
       <c r="C1" s="2"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A2" s="3" t="s">
         <v>9</v>
       </c>
@@ -536,7 +556,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A3" s="5">
         <v>5</v>
       </c>
@@ -556,7 +576,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A4" s="5"/>
       <c r="B4" s="7"/>
       <c r="C4" s="6"/>
@@ -570,7 +590,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A5" s="5"/>
       <c r="B5" s="7"/>
       <c r="C5" s="6"/>
@@ -584,7 +604,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A6" s="5"/>
       <c r="B6" s="7"/>
       <c r="C6" s="6"/>
@@ -598,7 +618,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A7" s="5"/>
       <c r="B7" s="7"/>
       <c r="C7" s="6"/>
@@ -612,11 +632,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A8" s="5">
         <v>6</v>
       </c>
-      <c r="B8" s="7"/>
+      <c r="B8" s="7">
+        <v>1</v>
+      </c>
       <c r="C8" s="8" t="s">
         <v>13</v>
       </c>
@@ -630,7 +652,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A9" s="5"/>
       <c r="B9" s="7"/>
       <c r="C9" s="8"/>
@@ -644,32 +666,53 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A10" s="5"/>
       <c r="B10" s="7"/>
       <c r="C10" s="8"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="D10" s="1">
+        <v>43775</v>
+      </c>
+      <c r="E10" t="s">
+        <v>16</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A11" s="5"/>
       <c r="B11" s="7"/>
       <c r="C11" s="8"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="D11" s="1">
+        <v>43776</v>
+      </c>
+      <c r="E11" t="s">
+        <v>17</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A12" s="5"/>
       <c r="B12" s="7"/>
       <c r="C12" s="8"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A13" s="5"/>
       <c r="B13" s="7"/>
       <c r="C13" s="8"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A14" s="5"/>
       <c r="B14" s="7"/>
       <c r="C14" s="8"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A15" s="3">
         <v>7</v>
       </c>
